--- a/p0/tiempos.xlsx
+++ b/p0/tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaiza\OneDrive - Universidad de Oviedo\Escritorio\Alg\IIS-Alg\p0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85D582F-7A6B-4C91-8BD2-C9C739A93880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3D9F6-1698-4AEB-8012-07A5E4CBB340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="4425" windowWidth="21600" windowHeight="11775" xr2:uid="{298C064B-D583-44EC-9D6F-789540E3B899}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{298C064B-D583-44EC-9D6F-789540E3B899}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>PythonA1</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>PC2</t>
+  </si>
+  <si>
+    <t>Procesador</t>
+  </si>
+  <si>
+    <t>12th Gen Intel(R) Core(TM) i5-12400 (2.50 GHz)</t>
+  </si>
+  <si>
+    <t>Memoria</t>
+  </si>
+  <si>
+    <t>16 GB RAM</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5800H with Radeon Graphics (3.20 GHz)</t>
   </si>
 </sst>
 </file>
@@ -87,7 +102,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,12 +178,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,13 +502,13 @@
   <dimension ref="B2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J2" sqref="J2:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
@@ -505,22 +527,22 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -816,62 +838,104 @@
       <c r="B11" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>5000</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>334</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="4">
+        <v>607</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>10000</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1427</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="4">
+        <v>2492</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>20000</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>5749</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="4">
+        <v>14664</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>40000</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>23485</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="4">
+        <v>47920</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>80000</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>93311</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="5">
+        <v>170841</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
@@ -889,11 +953,12 @@
       <c r="C32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
